--- a/notebooks/TOMM7/input/TOMM7_individuals.xlsx
+++ b/notebooks/TOMM7/input/TOMM7_individuals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/TOMM7/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72760BE-DA4C-5247-9122-D0C3A144F180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA612C8-8241-994E-8F8B-B6407611F87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{B9429C60-3608-4A4B-8875-64641B899A5A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
   <si>
     <t>PMID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>str</t>
   </si>
   <si>
-    <t>optional str</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -315,13 +312,31 @@
   </si>
   <si>
     <t>P2Y7M</t>
+  </si>
+  <si>
+    <t>HGNC_id</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>CURIE</t>
+  </si>
+  <si>
+    <t>TOMM7</t>
+  </si>
+  <si>
+    <t>HGNC:21648</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,6 +356,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -350,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -358,14 +381,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,15 +741,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CA9F93-0A72-C84B-BBFE-B712568929FC}">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,118 +768,124 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>81</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -847,371 +894,389 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
